--- a/Code/Results/Cases/Case_9_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.18384583639892</v>
+        <v>24.21017069154501</v>
       </c>
       <c r="C2">
-        <v>15.14975975005508</v>
+        <v>15.21039076108896</v>
       </c>
       <c r="D2">
-        <v>5.034168655586446</v>
+        <v>5.077514363748606</v>
       </c>
       <c r="E2">
-        <v>8.87699017485383</v>
+        <v>8.734639884587143</v>
       </c>
       <c r="F2">
-        <v>16.10833464712155</v>
+        <v>15.80129722147227</v>
       </c>
       <c r="G2">
-        <v>19.23084458802282</v>
+        <v>17.96825287096902</v>
       </c>
       <c r="H2">
-        <v>1.56160674206332</v>
+        <v>1.606788039394513</v>
       </c>
       <c r="I2">
-        <v>2.490235167949096</v>
+        <v>2.520845564562723</v>
       </c>
       <c r="J2">
-        <v>8.093556469340323</v>
+        <v>8.560933274978757</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.96052979838973</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.636072229992824</v>
       </c>
       <c r="N2">
-        <v>7.948033003034769</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.022035964800022</v>
       </c>
       <c r="Q2">
-        <v>12.85854506365015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.61654533336139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.59433437080568</v>
+        <v>22.62750883712724</v>
       </c>
       <c r="C3">
-        <v>14.60058099192768</v>
+        <v>14.54911171569469</v>
       </c>
       <c r="D3">
-        <v>4.823563373207989</v>
+        <v>4.847333716371373</v>
       </c>
       <c r="E3">
-        <v>8.79264601727265</v>
+        <v>8.668574793690196</v>
       </c>
       <c r="F3">
-        <v>15.8025786003779</v>
+        <v>15.54224555213361</v>
       </c>
       <c r="G3">
-        <v>18.86720855583136</v>
+        <v>17.68343161781554</v>
       </c>
       <c r="H3">
-        <v>1.762067177192689</v>
+        <v>1.69942172375268</v>
       </c>
       <c r="I3">
-        <v>2.654380651294137</v>
+        <v>2.573793278793057</v>
       </c>
       <c r="J3">
-        <v>8.139297462569854</v>
+        <v>8.584484503370563</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.1738739122432</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.844301501833327</v>
       </c>
       <c r="N3">
-        <v>7.617190471616839</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.693105218653586</v>
       </c>
       <c r="Q3">
-        <v>12.84367507603507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.63050401459072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.558357702262</v>
+        <v>21.59595984926965</v>
       </c>
       <c r="C4">
-        <v>14.25554428083818</v>
+        <v>14.13270537964899</v>
       </c>
       <c r="D4">
-        <v>4.689430876665136</v>
+        <v>4.700642102074292</v>
       </c>
       <c r="E4">
-        <v>8.739087506520343</v>
+        <v>8.626362295930903</v>
       </c>
       <c r="F4">
-        <v>15.62273618393683</v>
+        <v>15.38964651137434</v>
       </c>
       <c r="G4">
-        <v>18.65642434680617</v>
+        <v>17.52263224863715</v>
       </c>
       <c r="H4">
-        <v>1.889494109696345</v>
+        <v>1.817844084665121</v>
       </c>
       <c r="I4">
-        <v>2.759477235578494</v>
+        <v>2.667748468861726</v>
       </c>
       <c r="J4">
-        <v>8.171081676483997</v>
+        <v>8.600500134495691</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.3099951985355</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.990700388398017</v>
       </c>
       <c r="N4">
-        <v>7.406889952153447</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.484338794851614</v>
       </c>
       <c r="Q4">
-        <v>12.8426131628234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.64555444586572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.12091953520639</v>
+        <v>21.16039074714231</v>
       </c>
       <c r="C5">
-        <v>14.12350891387508</v>
+        <v>13.97108123753784</v>
       </c>
       <c r="D5">
-        <v>4.635439205307983</v>
+        <v>4.641355626243811</v>
       </c>
       <c r="E5">
-        <v>8.714534778566478</v>
+        <v>8.606596867712463</v>
       </c>
       <c r="F5">
-        <v>15.54245358198298</v>
+        <v>15.32046470471704</v>
       </c>
       <c r="G5">
-        <v>18.55746159963158</v>
+        <v>17.44462606738523</v>
       </c>
       <c r="H5">
-        <v>1.942792316979766</v>
+        <v>1.867399876141537</v>
       </c>
       <c r="I5">
-        <v>2.806343780090825</v>
+        <v>2.710569084220234</v>
       </c>
       <c r="J5">
-        <v>8.182423038526075</v>
+        <v>8.605059469210728</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.36187168584458</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.052802382327195</v>
       </c>
       <c r="N5">
-        <v>7.320452036197405</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.398570625640641</v>
       </c>
       <c r="Q5">
-        <v>12.83767658035328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.64709704225233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.04721148134986</v>
+        <v>21.08699369519525</v>
       </c>
       <c r="C6">
-        <v>14.11424598415259</v>
+        <v>13.95694881192517</v>
       </c>
       <c r="D6">
-        <v>4.628658499111043</v>
+        <v>4.633626625503434</v>
       </c>
       <c r="E6">
-        <v>8.707644789339737</v>
+        <v>8.600669802179334</v>
       </c>
       <c r="F6">
-        <v>15.5182050667015</v>
+        <v>15.29851689516989</v>
       </c>
       <c r="G6">
-        <v>18.52138267294485</v>
+        <v>17.41238984209154</v>
       </c>
       <c r="H6">
-        <v>1.952030065944119</v>
+        <v>1.876006386807306</v>
       </c>
       <c r="I6">
-        <v>2.817998464469012</v>
+        <v>2.722245162152764</v>
       </c>
       <c r="J6">
-        <v>8.181291635445286</v>
+        <v>8.602970181488617</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.3646204315808</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.06090513545379</v>
       </c>
       <c r="N6">
-        <v>7.307200809466396</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.385370908023117</v>
       </c>
       <c r="Q6">
-        <v>12.8290780645819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.63993153108291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.55210451171329</v>
+        <v>21.58953212863292</v>
       </c>
       <c r="C7">
-        <v>14.28833134747625</v>
+        <v>14.16237071634079</v>
       </c>
       <c r="D7">
-        <v>4.694794937837441</v>
+        <v>4.709266664234408</v>
       </c>
       <c r="E7">
-        <v>8.731208956838483</v>
+        <v>8.618489081889438</v>
       </c>
       <c r="F7">
-        <v>15.59169064087026</v>
+        <v>15.34434183314499</v>
       </c>
       <c r="G7">
-        <v>18.60123885633323</v>
+        <v>17.55129297793808</v>
       </c>
       <c r="H7">
-        <v>1.891062043542359</v>
+        <v>1.819806452238163</v>
       </c>
       <c r="I7">
-        <v>2.770195687651346</v>
+        <v>2.680714256584373</v>
       </c>
       <c r="J7">
-        <v>8.162859087583772</v>
+        <v>8.557903641742524</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.28957918748883</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.981768966497105</v>
       </c>
       <c r="N7">
-        <v>7.408974590873034</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.485929159916036</v>
       </c>
       <c r="Q7">
-        <v>12.82101278352632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.61406970920316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.64769901267722</v>
+        <v>23.67576107254199</v>
       </c>
       <c r="C8">
-        <v>15.00642293419198</v>
+        <v>15.02009702633987</v>
       </c>
       <c r="D8">
-        <v>4.970318480004032</v>
+        <v>5.0179647864016</v>
       </c>
       <c r="E8">
-        <v>8.838566412710174</v>
+        <v>8.701635106455123</v>
       </c>
       <c r="F8">
-        <v>15.96269319025607</v>
+        <v>15.62282081339896</v>
       </c>
       <c r="G8">
-        <v>19.03344849834279</v>
+        <v>18.06906813629961</v>
       </c>
       <c r="H8">
-        <v>1.630871790064472</v>
+        <v>1.578996951533205</v>
       </c>
       <c r="I8">
-        <v>2.559037287801218</v>
+        <v>2.49404171872225</v>
       </c>
       <c r="J8">
-        <v>8.097502697950329</v>
+        <v>8.444813500344516</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.9989352234953</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.681188458374802</v>
       </c>
       <c r="N8">
-        <v>7.839591982374033</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.912960658870165</v>
       </c>
       <c r="Q8">
-        <v>12.82343287498892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.55685599542393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.28417967551272</v>
+        <v>27.29586760877634</v>
       </c>
       <c r="C9">
-        <v>16.28844871503759</v>
+        <v>16.56373743623189</v>
       </c>
       <c r="D9">
-        <v>5.460611922044112</v>
+        <v>5.556030439904267</v>
       </c>
       <c r="E9">
-        <v>9.048063258833922</v>
+        <v>8.865697573783248</v>
       </c>
       <c r="F9">
-        <v>16.80225343837041</v>
+        <v>16.32683436704896</v>
       </c>
       <c r="G9">
-        <v>20.07204005561365</v>
+        <v>18.98163725675276</v>
       </c>
       <c r="H9">
-        <v>1.958278431201951</v>
+        <v>1.975361615024259</v>
       </c>
       <c r="I9">
-        <v>2.784014691918139</v>
+        <v>2.814325132330374</v>
       </c>
       <c r="J9">
-        <v>8.01508056024128</v>
+        <v>8.372855163543868</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.51336883224914</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.274032507258564</v>
       </c>
       <c r="N9">
-        <v>8.618820185169684</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.689161647699038</v>
       </c>
       <c r="Q9">
-        <v>12.93368159515667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.5757123338723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.66877550871912</v>
+        <v>29.66806342234816</v>
       </c>
       <c r="C10">
-        <v>17.31350624444167</v>
+        <v>17.73748075660063</v>
       </c>
       <c r="D10">
-        <v>5.823605474383875</v>
+        <v>5.965512798062644</v>
       </c>
       <c r="E10">
-        <v>9.089771573404425</v>
+        <v>8.882396979077138</v>
       </c>
       <c r="F10">
-        <v>17.31089517077065</v>
+        <v>16.66708460531651</v>
       </c>
       <c r="G10">
-        <v>20.63846864623374</v>
+        <v>19.93158894369547</v>
       </c>
       <c r="H10">
-        <v>2.272454677615514</v>
+        <v>2.264427017999145</v>
       </c>
       <c r="I10">
-        <v>3.048505591468504</v>
+        <v>3.049684256579164</v>
       </c>
       <c r="J10">
-        <v>7.932400468735169</v>
+        <v>8.104849877038767</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.12204729461651</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.993961013379933</v>
       </c>
       <c r="N10">
-        <v>9.022667255411655</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.088670037170449</v>
       </c>
       <c r="Q10">
-        <v>12.95132636549215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.47138484235426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.67701394732439</v>
+        <v>30.67091922729218</v>
       </c>
       <c r="C11">
-        <v>18.83122058403497</v>
+        <v>19.16558231652316</v>
       </c>
       <c r="D11">
-        <v>6.218093643888758</v>
+        <v>6.386527682436832</v>
       </c>
       <c r="E11">
-        <v>8.488595452287791</v>
+        <v>8.341359473590963</v>
       </c>
       <c r="F11">
-        <v>16.40158634658241</v>
+        <v>15.6854997726057</v>
       </c>
       <c r="G11">
-        <v>18.85366441178813</v>
+        <v>19.28869550579988</v>
       </c>
       <c r="H11">
-        <v>3.083333317652388</v>
+        <v>3.069257752577771</v>
       </c>
       <c r="I11">
-        <v>3.136345648177413</v>
+        <v>3.12698659840758</v>
       </c>
       <c r="J11">
-        <v>7.551444658728474</v>
+        <v>7.467980745354187</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.670357588795337</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.370205836864621</v>
       </c>
       <c r="N11">
-        <v>8.102757991715793</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.149285814397626</v>
       </c>
       <c r="Q11">
-        <v>12.08750627962521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.57386080326538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.04560186694385</v>
+        <v>31.03783763238452</v>
       </c>
       <c r="C12">
-        <v>19.89600017221595</v>
+        <v>20.11902528945075</v>
       </c>
       <c r="D12">
-        <v>6.474993421364437</v>
+        <v>6.645064476331133</v>
       </c>
       <c r="E12">
-        <v>8.367866345788054</v>
+        <v>8.262734656145559</v>
       </c>
       <c r="F12">
-        <v>15.54946468719817</v>
+        <v>14.8590219894486</v>
       </c>
       <c r="G12">
-        <v>17.27238366003167</v>
+        <v>18.31792614827861</v>
       </c>
       <c r="H12">
-        <v>4.29310627901998</v>
+        <v>4.281287121209135</v>
       </c>
       <c r="I12">
-        <v>3.155542762639697</v>
+        <v>3.142164974869029</v>
       </c>
       <c r="J12">
-        <v>7.260722882883004</v>
+        <v>7.15619391307124</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.469991225772084</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.982056985014546</v>
       </c>
       <c r="N12">
-        <v>7.264820461290071</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.296710780563677</v>
       </c>
       <c r="Q12">
-        <v>11.38164385008296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.90684707424818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.9566089641894</v>
+        <v>30.95019714609792</v>
       </c>
       <c r="C13">
-        <v>20.73787556782052</v>
+        <v>20.83337333207886</v>
       </c>
       <c r="D13">
-        <v>6.654551623075172</v>
+        <v>6.798235365925775</v>
       </c>
       <c r="E13">
-        <v>8.604718466478793</v>
+        <v>8.525280770686836</v>
       </c>
       <c r="F13">
-        <v>14.63040400884257</v>
+        <v>14.0812880181665</v>
       </c>
       <c r="G13">
-        <v>15.64628255544031</v>
+        <v>16.73357673851314</v>
       </c>
       <c r="H13">
-        <v>5.587720648133685</v>
+        <v>5.579907547888597</v>
       </c>
       <c r="I13">
-        <v>3.127056670001824</v>
+        <v>3.116654428821621</v>
       </c>
       <c r="J13">
-        <v>7.010578679664158</v>
+        <v>7.05425919294502</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.399361316704782</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.765695034052837</v>
       </c>
       <c r="N13">
-        <v>6.440969828862511</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.462040763834034</v>
       </c>
       <c r="Q13">
-        <v>10.72206588927821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.36771814665201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.68608097570625</v>
+        <v>30.68192443520326</v>
       </c>
       <c r="C14">
-        <v>21.24639926524702</v>
+        <v>21.24347259025101</v>
       </c>
       <c r="D14">
-        <v>6.749093483239024</v>
+        <v>6.861144625382583</v>
       </c>
       <c r="E14">
-        <v>8.967067917233212</v>
+        <v>8.894005001543876</v>
       </c>
       <c r="F14">
-        <v>13.9445371628475</v>
+        <v>13.54504530416722</v>
       </c>
       <c r="G14">
-        <v>14.46951343629856</v>
+        <v>15.33250300482821</v>
       </c>
       <c r="H14">
-        <v>6.522728047370492</v>
+        <v>6.517684131945412</v>
       </c>
       <c r="I14">
-        <v>3.086856184993922</v>
+        <v>3.081957299041407</v>
       </c>
       <c r="J14">
-        <v>6.855034525314796</v>
+        <v>7.053792352293395</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.398361973498156</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.709955747710785</v>
       </c>
       <c r="N14">
-        <v>5.885220367149971</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.901132215669236</v>
       </c>
       <c r="Q14">
-        <v>10.28243184600328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.04324564598787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.52090181659367</v>
+        <v>30.51794956303443</v>
       </c>
       <c r="C15">
-        <v>21.33291425742655</v>
+        <v>21.30312007427112</v>
       </c>
       <c r="D15">
-        <v>6.757393899349803</v>
+        <v>6.856176154952529</v>
       </c>
       <c r="E15">
-        <v>9.07508118811206</v>
+        <v>9.002445175816657</v>
       </c>
       <c r="F15">
-        <v>13.75493135550204</v>
+        <v>13.41341524128681</v>
       </c>
       <c r="G15">
-        <v>14.15947624561825</v>
+        <v>14.86161516163198</v>
       </c>
       <c r="H15">
-        <v>6.735574828265158</v>
+        <v>6.731520646976651</v>
       </c>
       <c r="I15">
-        <v>3.06769002792477</v>
+        <v>3.066173832438813</v>
       </c>
       <c r="J15">
-        <v>6.823704588932987</v>
+        <v>7.082811328111566</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.409528810469487</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.726381266835239</v>
       </c>
       <c r="N15">
-        <v>5.750502717410273</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.76610706381422</v>
       </c>
       <c r="Q15">
-        <v>10.18048800899351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.982394720334355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.56279844152225</v>
+        <v>29.56607193868812</v>
       </c>
       <c r="C16">
-        <v>20.79738961999432</v>
+        <v>20.75024239876678</v>
       </c>
       <c r="D16">
-        <v>6.584496086502166</v>
+        <v>6.63859004647342</v>
       </c>
       <c r="E16">
-        <v>8.993881938704249</v>
+        <v>8.925598148421582</v>
       </c>
       <c r="F16">
-        <v>13.66656986240465</v>
+        <v>13.49650402664695</v>
       </c>
       <c r="G16">
-        <v>14.15055053557268</v>
+        <v>13.99483330503505</v>
       </c>
       <c r="H16">
-        <v>6.467002824410799</v>
+        <v>6.467019848269444</v>
       </c>
       <c r="I16">
-        <v>2.961915782129929</v>
+        <v>2.975841055884566</v>
       </c>
       <c r="J16">
-        <v>6.907813050742076</v>
+        <v>7.3791356527378</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.502650790454169</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.963144050674005</v>
       </c>
       <c r="N16">
-        <v>5.710194809659476</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.733414363538769</v>
       </c>
       <c r="Q16">
-        <v>10.29365179014061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.20183969722818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.96175048923408</v>
+        <v>28.96841729187151</v>
       </c>
       <c r="C17">
-        <v>20.0972512362367</v>
+        <v>20.08738533872833</v>
       </c>
       <c r="D17">
-        <v>6.39687930286184</v>
+        <v>6.439408052796118</v>
       </c>
       <c r="E17">
-        <v>8.708344889906027</v>
+        <v>8.641966824376443</v>
       </c>
       <c r="F17">
-        <v>13.97336524338199</v>
+        <v>13.83381031479185</v>
       </c>
       <c r="G17">
-        <v>14.78165591199304</v>
+        <v>14.21221294372224</v>
       </c>
       <c r="H17">
-        <v>5.715881802597651</v>
+        <v>5.718285149077625</v>
       </c>
       <c r="I17">
-        <v>2.902311960183296</v>
+        <v>2.924819838248167</v>
       </c>
       <c r="J17">
-        <v>7.052924622258111</v>
+        <v>7.604128963336527</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.596973314921167</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.156264570505945</v>
       </c>
       <c r="N17">
-        <v>5.972203128697314</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.002936334592992</v>
       </c>
       <c r="Q17">
-        <v>10.61040123886451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.53043054408224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.61483637976815</v>
+        <v>28.62300517062136</v>
       </c>
       <c r="C18">
-        <v>19.16396505055883</v>
+        <v>19.24461322671543</v>
       </c>
       <c r="D18">
-        <v>6.174097359214559</v>
+        <v>6.22524584438331</v>
       </c>
       <c r="E18">
-        <v>8.388762359592713</v>
+        <v>8.313591418053687</v>
       </c>
       <c r="F18">
-        <v>14.67003597838319</v>
+        <v>14.47434981344634</v>
       </c>
       <c r="G18">
-        <v>16.06645317842564</v>
+        <v>15.23369978083292</v>
       </c>
       <c r="H18">
-        <v>4.499900579008809</v>
+        <v>4.504255401634462</v>
       </c>
       <c r="I18">
-        <v>2.874213904603734</v>
+        <v>2.899392310768077</v>
       </c>
       <c r="J18">
-        <v>7.275736522622915</v>
+        <v>7.83343970328884</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.737490020508098</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.370464757543804</v>
       </c>
       <c r="N18">
-        <v>6.566104188840891</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.606241770204005</v>
       </c>
       <c r="Q18">
-        <v>11.1578645629102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.03044948114977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.50368213954997</v>
+        <v>28.51166318631543</v>
       </c>
       <c r="C19">
-        <v>18.21031027018998</v>
+        <v>18.40984353437156</v>
       </c>
       <c r="D19">
-        <v>5.956185553729391</v>
+        <v>6.027088205198547</v>
       </c>
       <c r="E19">
-        <v>8.357511153908016</v>
+        <v>8.24979212313824</v>
       </c>
       <c r="F19">
-        <v>15.5721975715378</v>
+        <v>15.27005516326444</v>
       </c>
       <c r="G19">
-        <v>17.69132459400604</v>
+        <v>16.65786074968353</v>
       </c>
       <c r="H19">
-        <v>3.145040372795586</v>
+        <v>3.151185478209875</v>
       </c>
       <c r="I19">
-        <v>2.885811152756721</v>
+        <v>2.910943205252626</v>
       </c>
       <c r="J19">
-        <v>7.538021653970034</v>
+        <v>8.059702508495098</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.929865591548189</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.627400735506963</v>
       </c>
       <c r="N19">
-        <v>7.42915170745052</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.480487917573257</v>
       </c>
       <c r="Q19">
-        <v>11.82797516018994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.61575898178599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.06056848014688</v>
+        <v>29.06366658390239</v>
       </c>
       <c r="C20">
-        <v>17.14975964197018</v>
+        <v>17.54336229336975</v>
       </c>
       <c r="D20">
-        <v>5.747925112276173</v>
+        <v>5.866522636473603</v>
       </c>
       <c r="E20">
-        <v>9.053862978290763</v>
+        <v>8.85635624184639</v>
       </c>
       <c r="F20">
-        <v>17.08528966491286</v>
+        <v>16.5418515831402</v>
       </c>
       <c r="G20">
-        <v>20.32454819111741</v>
+        <v>19.25026734834047</v>
       </c>
       <c r="H20">
-        <v>2.187395296535889</v>
+        <v>2.187170693246251</v>
       </c>
       <c r="I20">
-        <v>2.990122052253947</v>
+        <v>3.003521684148649</v>
       </c>
       <c r="J20">
-        <v>7.925302285151671</v>
+        <v>8.267676811774297</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.20179327611032</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.034251679882988</v>
       </c>
       <c r="N20">
-        <v>8.921245002576757</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.988767606368265</v>
       </c>
       <c r="Q20">
-        <v>12.87458774388421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.47035957777692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.80455898838427</v>
+        <v>30.79521811252202</v>
       </c>
       <c r="C21">
-        <v>17.71951330222182</v>
+        <v>18.20093142805036</v>
       </c>
       <c r="D21">
-        <v>5.973510941586948</v>
+        <v>6.186516696766291</v>
       </c>
       <c r="E21">
-        <v>9.243431211514078</v>
+        <v>9.007540138255854</v>
       </c>
       <c r="F21">
-        <v>17.70419405314728</v>
+        <v>16.73930373444396</v>
       </c>
       <c r="G21">
-        <v>21.1700969155608</v>
+        <v>21.77168940222218</v>
       </c>
       <c r="H21">
-        <v>2.438830052701852</v>
+        <v>2.413011397668275</v>
       </c>
       <c r="I21">
-        <v>3.194165444082739</v>
+        <v>3.178319127568119</v>
       </c>
       <c r="J21">
-        <v>7.934948070538468</v>
+        <v>7.561811855605885</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.923012867382566</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.847515816272401</v>
       </c>
       <c r="N21">
-        <v>9.418673433662269</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.481294690533721</v>
       </c>
       <c r="Q21">
-        <v>13.07085323710306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.34563120831281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.89304183795347</v>
+        <v>31.87564773227457</v>
       </c>
       <c r="C22">
-        <v>18.10350769760251</v>
+        <v>18.63135826772243</v>
       </c>
       <c r="D22">
-        <v>6.122907030583462</v>
+        <v>6.398636923618087</v>
       </c>
       <c r="E22">
-        <v>9.323264588647799</v>
+        <v>9.06744226501278</v>
       </c>
       <c r="F22">
-        <v>18.08070642789022</v>
+        <v>16.83027583080823</v>
       </c>
       <c r="G22">
-        <v>21.67265415997601</v>
+        <v>23.47030990481073</v>
       </c>
       <c r="H22">
-        <v>2.595164243869777</v>
+        <v>2.553190407548193</v>
       </c>
       <c r="I22">
-        <v>3.319477328781724</v>
+        <v>3.283887174145697</v>
       </c>
       <c r="J22">
-        <v>7.936533762805256</v>
+        <v>7.137614639367317</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.740708643260348</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.723151081299597</v>
       </c>
       <c r="N22">
-        <v>9.665299363878953</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.724057168251875</v>
       </c>
       <c r="Q22">
-        <v>13.18447850412459</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.23623969908003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.31707938921348</v>
+        <v>31.30428558959882</v>
       </c>
       <c r="C23">
-        <v>17.86439483526123</v>
+        <v>18.3733769434685</v>
       </c>
       <c r="D23">
-        <v>6.037649535218206</v>
+        <v>6.272440943020731</v>
       </c>
       <c r="E23">
-        <v>9.288667405433499</v>
+        <v>9.043186966179816</v>
       </c>
       <c r="F23">
-        <v>17.90985008720446</v>
+        <v>16.84694042436056</v>
       </c>
       <c r="G23">
-        <v>21.45820046136132</v>
+        <v>22.41915964753111</v>
       </c>
       <c r="H23">
-        <v>2.512694272330578</v>
+        <v>2.480000082457428</v>
       </c>
       <c r="I23">
-        <v>3.248866239135528</v>
+        <v>3.223149387214029</v>
       </c>
       <c r="J23">
-        <v>7.94494852372562</v>
+        <v>7.424487972441408</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.853423582609762</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.81890189858562</v>
       </c>
       <c r="N23">
-        <v>9.531274515928544</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.592823166685982</v>
       </c>
       <c r="Q23">
-        <v>13.1469977513642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.34454796246912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.03333084673347</v>
+        <v>29.03643555402379</v>
       </c>
       <c r="C24">
-        <v>16.99305101816104</v>
+        <v>17.39582499577243</v>
       </c>
       <c r="D24">
-        <v>5.713809162965934</v>
+        <v>5.833840644078031</v>
       </c>
       <c r="E24">
-        <v>9.142564467586316</v>
+        <v>8.937373343930583</v>
       </c>
       <c r="F24">
-        <v>17.22610671085453</v>
+        <v>16.67137094917621</v>
       </c>
       <c r="G24">
-        <v>20.58162489133274</v>
+        <v>19.47168778751014</v>
       </c>
       <c r="H24">
-        <v>2.193050909186698</v>
+        <v>2.192825566223265</v>
       </c>
       <c r="I24">
-        <v>2.983451186584195</v>
+        <v>2.994722175853008</v>
       </c>
       <c r="J24">
-        <v>7.970937045542076</v>
+        <v>8.31122495284392</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.25324444743342</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.102425738395467</v>
       </c>
       <c r="N24">
-        <v>9.012629523166771</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.081775098628132</v>
       </c>
       <c r="Q24">
-        <v>12.98717040492508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.57257023614549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.35012066728169</v>
+        <v>26.36639020557469</v>
       </c>
       <c r="C25">
-        <v>16.00730247668815</v>
+        <v>16.21828550816221</v>
       </c>
       <c r="D25">
-        <v>5.342413844748201</v>
+        <v>5.420664553035945</v>
       </c>
       <c r="E25">
-        <v>8.980128083085132</v>
+        <v>8.811518739053653</v>
       </c>
       <c r="F25">
-        <v>16.5184704124396</v>
+        <v>16.10415377948601</v>
       </c>
       <c r="G25">
-        <v>19.68996889613276</v>
+        <v>18.52195803650223</v>
       </c>
       <c r="H25">
-        <v>1.834308118518843</v>
+        <v>1.860841802684928</v>
       </c>
       <c r="I25">
-        <v>2.689201050071136</v>
+        <v>2.732610635333719</v>
       </c>
       <c r="J25">
-        <v>8.01886751881443</v>
+        <v>8.425838810299572</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.62535735783057</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.350546262247887</v>
       </c>
       <c r="N25">
-        <v>8.420051517870403</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.491124907874296</v>
       </c>
       <c r="Q25">
-        <v>12.85812877966127</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.54404214432322</v>
       </c>
     </row>
   </sheetData>
